--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/91/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/91/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24415</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.15</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.97904</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2979.04</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.68455</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3684.55</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155036</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.231350000000001</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>4231.35</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.69109</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4691.09</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.042479999999999</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>5042.48</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247962</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>5.3032</v>
+        <v>8.91962</v>
       </c>
       <c r="C10" t="n">
-        <v>5303.2</v>
+        <v>8919.620000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278887</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>5.38264</v>
+        <v>9.885250000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>5382.64</v>
+        <v>9885.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309812</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>5.391979999999999</v>
+        <v>10.5354</v>
       </c>
       <c r="C12" t="n">
-        <v>5391.98</v>
+        <v>10535.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340737</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>5.39585</v>
+        <v>11.1813</v>
       </c>
       <c r="C13" t="n">
-        <v>5395.85</v>
+        <v>11181.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371662</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>5.397939999999999</v>
+        <v>11.7232</v>
       </c>
       <c r="C14" t="n">
-        <v>5397.94</v>
+        <v>11723.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402587</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>5.39846</v>
+        <v>12.0196</v>
       </c>
       <c r="C15" t="n">
-        <v>5398.46</v>
+        <v>12019.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433512</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>5.39777</v>
+        <v>12.173</v>
       </c>
       <c r="C16" t="n">
-        <v>5397.77</v>
+        <v>12173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464432</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>5.39608</v>
+        <v>12.2145</v>
       </c>
       <c r="C17" t="n">
-        <v>5396.08</v>
+        <v>12214.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495357</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>5.39354</v>
+        <v>12.2051</v>
       </c>
       <c r="C18" t="n">
-        <v>5393.54</v>
+        <v>12205.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526282</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>5.3902</v>
+        <v>12.1847</v>
       </c>
       <c r="C19" t="n">
-        <v>5390.2</v>
+        <v>12184.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557207</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>5.38615</v>
+        <v>12.1608</v>
       </c>
       <c r="C20" t="n">
-        <v>5386.15</v>
+        <v>12160.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588132</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>5.38145</v>
+        <v>12.1347</v>
       </c>
       <c r="C21" t="n">
-        <v>5381.45</v>
+        <v>12134.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619174</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>5.376069999999999</v>
+        <v>12.1058</v>
       </c>
       <c r="C22" t="n">
-        <v>5376.07</v>
+        <v>12105.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650352</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>5.37005</v>
+        <v>12.0743</v>
       </c>
       <c r="C23" t="n">
-        <v>5370.05</v>
+        <v>12074.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681524</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>5.36341</v>
+        <v>12.0388</v>
       </c>
       <c r="C24" t="n">
-        <v>5363.41</v>
+        <v>12038.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712697</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>5.3562</v>
+        <v>12.0014</v>
       </c>
       <c r="C25" t="n">
-        <v>5356.2</v>
+        <v>12001.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743874</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>5.34836</v>
+        <v>11.9625</v>
       </c>
       <c r="C26" t="n">
-        <v>5348.36</v>
+        <v>11962.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775046</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>5.3399</v>
+        <v>11.9217</v>
       </c>
       <c r="C27" t="n">
-        <v>5339.9</v>
+        <v>11921.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806219</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>5.33083</v>
+        <v>11.8791</v>
       </c>
       <c r="C28" t="n">
-        <v>5330.83</v>
+        <v>11879.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837396</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>5.32109</v>
+        <v>11.8345</v>
       </c>
       <c r="C29" t="n">
-        <v>5321.09</v>
+        <v>11834.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868568</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5.31079</v>
+        <v>11.7879</v>
       </c>
       <c r="C30" t="n">
-        <v>5310.79</v>
+        <v>11787.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899745</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>5.2998</v>
+        <v>11.7391</v>
       </c>
       <c r="C31" t="n">
-        <v>5299.8</v>
+        <v>11739.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930918</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>5.28822</v>
+        <v>11.6874</v>
       </c>
       <c r="C32" t="n">
-        <v>5288.22</v>
+        <v>11687.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962091</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>5.275810000000001</v>
+        <v>11.6334</v>
       </c>
       <c r="C33" t="n">
-        <v>5275.81</v>
+        <v>11633.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993268</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>5.26233</v>
+        <v>11.5759</v>
       </c>
       <c r="C34" t="n">
-        <v>5262.33</v>
+        <v>11575.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>5.2479</v>
+        <v>11.5157</v>
       </c>
       <c r="C35" t="n">
-        <v>5247.9</v>
+        <v>11515.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05595</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>5.23282</v>
+        <v>11.4526</v>
       </c>
       <c r="C36" t="n">
-        <v>5232.82</v>
+        <v>11452.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>5.21698</v>
+        <v>11.3854</v>
       </c>
       <c r="C37" t="n">
-        <v>5216.98</v>
+        <v>11385.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>5.20041</v>
+        <v>11.3151</v>
       </c>
       <c r="C38" t="n">
-        <v>5200.41</v>
+        <v>11315.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>5.18304</v>
+        <v>11.2382</v>
       </c>
       <c r="C39" t="n">
-        <v>5183.04</v>
+        <v>11238.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.18145</v>
       </c>
       <c r="B40" t="n">
-        <v>5.16487</v>
+        <v>11.1568</v>
       </c>
       <c r="C40" t="n">
-        <v>5164.87</v>
+        <v>11156.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21286</v>
+        <v>1.21283</v>
       </c>
       <c r="B41" t="n">
-        <v>5.145630000000001</v>
+        <v>11.0685</v>
       </c>
       <c r="C41" t="n">
-        <v>5145.63</v>
+        <v>11068.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24381</v>
       </c>
       <c r="B42" t="n">
-        <v>5.12537</v>
+        <v>10.9762</v>
       </c>
       <c r="C42" t="n">
-        <v>5125.37</v>
+        <v>10976.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27562</v>
+        <v>1.27494</v>
       </c>
       <c r="B43" t="n">
-        <v>5.10413</v>
+        <v>10.8761</v>
       </c>
       <c r="C43" t="n">
-        <v>5104.13</v>
+        <v>10876.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.307</v>
+        <v>1.30577</v>
       </c>
       <c r="B44" t="n">
-        <v>5.081840000000001</v>
+        <v>10.7718</v>
       </c>
       <c r="C44" t="n">
-        <v>5081.84</v>
+        <v>10771.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33838</v>
+        <v>1.33695</v>
       </c>
       <c r="B45" t="n">
-        <v>5.05849</v>
+        <v>10.6583</v>
       </c>
       <c r="C45" t="n">
-        <v>5058.49</v>
+        <v>10658.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36965</v>
+        <v>1.36777</v>
       </c>
       <c r="B46" t="n">
-        <v>5.03409</v>
+        <v>10.5404</v>
       </c>
       <c r="C46" t="n">
-        <v>5034.09</v>
+        <v>10540.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.4005</v>
+        <v>1.39897</v>
       </c>
       <c r="B47" t="n">
-        <v>5.00879</v>
+        <v>10.4137</v>
       </c>
       <c r="C47" t="n">
-        <v>5008.79</v>
+        <v>10413.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43167</v>
+        <v>1.42986</v>
       </c>
       <c r="B48" t="n">
-        <v>4.98211</v>
+        <v>10.2813</v>
       </c>
       <c r="C48" t="n">
-        <v>4982.11</v>
+        <v>10281.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46249</v>
+        <v>1.46089</v>
       </c>
       <c r="B49" t="n">
-        <v>4.95454</v>
+        <v>10.1418</v>
       </c>
       <c r="C49" t="n">
-        <v>4954.54</v>
+        <v>10141.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49363</v>
+        <v>1.49195</v>
       </c>
       <c r="B50" t="n">
-        <v>4.92542</v>
+        <v>9.99539</v>
       </c>
       <c r="C50" t="n">
-        <v>4925.42</v>
+        <v>9995.389999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52458</v>
+        <v>1.52279</v>
       </c>
       <c r="B51" t="n">
-        <v>4.89525</v>
+        <v>9.844850000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>4895.25</v>
+        <v>9844.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55561</v>
+        <v>1.55397</v>
       </c>
       <c r="B52" t="n">
-        <v>4.863600000000001</v>
+        <v>9.68643</v>
       </c>
       <c r="C52" t="n">
-        <v>4863.6</v>
+        <v>9686.43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58661</v>
+        <v>1.58471</v>
       </c>
       <c r="B53" t="n">
-        <v>4.8307</v>
+        <v>9.525840000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>4830.7</v>
+        <v>9525.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61756</v>
+        <v>1.61596</v>
       </c>
       <c r="B54" t="n">
-        <v>4.79648</v>
+        <v>9.357250000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>4796.48</v>
+        <v>9357.25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64865</v>
+        <v>1.64674</v>
       </c>
       <c r="B55" t="n">
-        <v>4.76061</v>
+        <v>9.188540000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4760.61</v>
+        <v>9188.540000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67952</v>
+        <v>1.67803</v>
       </c>
       <c r="B56" t="n">
-        <v>4.72366</v>
+        <v>9.012860000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>4723.66</v>
+        <v>9012.860000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71062</v>
+        <v>1.70876</v>
       </c>
       <c r="B57" t="n">
-        <v>4.684979999999999</v>
+        <v>8.837940000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>4684.98</v>
+        <v>8837.940000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7416</v>
+        <v>1.74</v>
       </c>
       <c r="B58" t="n">
-        <v>4.64505</v>
+        <v>8.659040000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>4645.05</v>
+        <v>8659.040000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77257</v>
+        <v>1.77064</v>
       </c>
       <c r="B59" t="n">
-        <v>4.60364</v>
+        <v>8.48368</v>
       </c>
       <c r="C59" t="n">
-        <v>4603.64</v>
+        <v>8483.68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80365</v>
+        <v>1.80201</v>
       </c>
       <c r="B60" t="n">
-        <v>4.560720000000001</v>
+        <v>8.30476</v>
       </c>
       <c r="C60" t="n">
-        <v>4560.72</v>
+        <v>8304.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83446</v>
+        <v>1.83271</v>
       </c>
       <c r="B61" t="n">
-        <v>4.51687</v>
+        <v>8.130330000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>4516.87</v>
+        <v>8130.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86569</v>
+        <v>1.864</v>
       </c>
       <c r="B62" t="n">
-        <v>4.471010000000001</v>
+        <v>7.9544</v>
       </c>
       <c r="C62" t="n">
-        <v>4471.01</v>
+        <v>7954.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89633</v>
+        <v>1.89489</v>
       </c>
       <c r="B63" t="n">
-        <v>4.424810000000001</v>
+        <v>7.78206</v>
       </c>
       <c r="C63" t="n">
-        <v>4424.81</v>
+        <v>7782.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92769</v>
+        <v>1.92586</v>
       </c>
       <c r="B64" t="n">
-        <v>4.376609999999999</v>
+        <v>7.61261</v>
       </c>
       <c r="C64" t="n">
-        <v>4376.61</v>
+        <v>7612.61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95841</v>
+        <v>1.95703</v>
       </c>
       <c r="B65" t="n">
-        <v>4.32831</v>
+        <v>7.444640000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>4328.31</v>
+        <v>7444.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98971</v>
+        <v>1.98756</v>
       </c>
       <c r="B66" t="n">
-        <v>4.27804</v>
+        <v>7.28569</v>
       </c>
       <c r="C66" t="n">
-        <v>4278.04</v>
+        <v>7285.69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02051</v>
+        <v>2.019</v>
       </c>
       <c r="B67" t="n">
-        <v>4.22811</v>
+        <v>7.12739</v>
       </c>
       <c r="C67" t="n">
-        <v>4228.11</v>
+        <v>7127.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05165</v>
+        <v>2.05029</v>
       </c>
       <c r="B68" t="n">
-        <v>4.17651</v>
+        <v>6.97894</v>
       </c>
       <c r="C68" t="n">
-        <v>4176.51</v>
+        <v>6978.94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08248</v>
+        <v>2.0806</v>
       </c>
       <c r="B69" t="n">
-        <v>4.12483</v>
+        <v>6.838</v>
       </c>
       <c r="C69" t="n">
-        <v>4124.83</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11377</v>
+        <v>2.11222</v>
       </c>
       <c r="B70" t="n">
-        <v>4.07217</v>
+        <v>6.70021</v>
       </c>
       <c r="C70" t="n">
-        <v>4072.17</v>
+        <v>6700.21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1443</v>
+        <v>2.14304</v>
       </c>
       <c r="B71" t="n">
-        <v>4.01941</v>
+        <v>6.57112</v>
       </c>
       <c r="C71" t="n">
-        <v>4019.41</v>
+        <v>6571.12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17593</v>
+        <v>2.17354</v>
       </c>
       <c r="B72" t="n">
-        <v>3.96545</v>
+        <v>6.45</v>
       </c>
       <c r="C72" t="n">
-        <v>3965.45</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20611</v>
+        <v>2.20554</v>
       </c>
       <c r="B73" t="n">
-        <v>3.91255</v>
+        <v>6.33057</v>
       </c>
       <c r="C73" t="n">
-        <v>3912.55</v>
+        <v>6330.57</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23781</v>
+        <v>2.236</v>
       </c>
       <c r="B74" t="n">
-        <v>3.85832</v>
+        <v>6.218850000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3858.32</v>
+        <v>6218.85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26851</v>
+        <v>2.2664</v>
       </c>
       <c r="B75" t="n">
-        <v>3.80474</v>
+        <v>6.114470000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3804.74</v>
+        <v>6114.47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29918</v>
+        <v>2.29838</v>
       </c>
       <c r="B76" t="n">
-        <v>3.75193</v>
+        <v>6.011340000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>3751.93</v>
+        <v>6011.34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33073</v>
+        <v>2.3291</v>
       </c>
       <c r="B77" t="n">
-        <v>3.69768</v>
+        <v>5.91439</v>
       </c>
       <c r="C77" t="n">
-        <v>3697.68</v>
+        <v>5914.39</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36145</v>
+        <v>2.35982</v>
       </c>
       <c r="B78" t="n">
-        <v>3.64474</v>
+        <v>5.82283</v>
       </c>
       <c r="C78" t="n">
-        <v>3644.74</v>
+        <v>5822.83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3925</v>
+        <v>2.39098</v>
       </c>
       <c r="B79" t="n">
-        <v>3.59232</v>
+        <v>5.73471</v>
       </c>
       <c r="C79" t="n">
-        <v>3592.32</v>
+        <v>5734.71</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42359</v>
+        <v>2.42206</v>
       </c>
       <c r="B80" t="n">
-        <v>3.5384</v>
+        <v>5.647720000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3538.4</v>
+        <v>5647.72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45467</v>
+        <v>2.45315</v>
       </c>
       <c r="B81" t="n">
-        <v>3.48585</v>
+        <v>5.56587</v>
       </c>
       <c r="C81" t="n">
-        <v>3485.85</v>
+        <v>5565.87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48513</v>
+        <v>2.48423</v>
       </c>
       <c r="B82" t="n">
-        <v>3.43448</v>
+        <v>5.48933</v>
       </c>
       <c r="C82" t="n">
-        <v>3434.48</v>
+        <v>5489.33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51438</v>
+        <v>2.51567</v>
       </c>
       <c r="B83" t="n">
-        <v>3.38434</v>
+        <v>5.42146</v>
       </c>
       <c r="C83" t="n">
-        <v>3384.34</v>
+        <v>5421.46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54375</v>
+        <v>2.54768</v>
       </c>
       <c r="B84" t="n">
-        <v>3.33516</v>
+        <v>5.354550000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3335.16</v>
+        <v>5354.55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57717</v>
+        <v>2.57967</v>
       </c>
       <c r="B85" t="n">
-        <v>3.2794</v>
+        <v>5.28887</v>
       </c>
       <c r="C85" t="n">
-        <v>3279.4</v>
+        <v>5288.87</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60917</v>
+        <v>2.61167</v>
       </c>
       <c r="B86" t="n">
-        <v>3.22523</v>
+        <v>5.224</v>
       </c>
       <c r="C86" t="n">
-        <v>3225.23</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64117</v>
+        <v>2.64409</v>
       </c>
       <c r="B87" t="n">
-        <v>3.17234</v>
+        <v>5.17242</v>
       </c>
       <c r="C87" t="n">
-        <v>3172.34</v>
+        <v>5172.42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67282</v>
+        <v>2.67532</v>
       </c>
       <c r="B88" t="n">
-        <v>3.12096</v>
+        <v>5.15753</v>
       </c>
       <c r="C88" t="n">
-        <v>3120.96</v>
+        <v>5157.53</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70269</v>
+        <v>2.70604</v>
       </c>
       <c r="B89" t="n">
-        <v>3.07073</v>
+        <v>5.14678</v>
       </c>
       <c r="C89" t="n">
-        <v>3070.73</v>
+        <v>5146.78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73255</v>
+        <v>2.73676</v>
       </c>
       <c r="B90" t="n">
-        <v>3.02191</v>
+        <v>5.14074</v>
       </c>
       <c r="C90" t="n">
-        <v>3021.91</v>
+        <v>5140.74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76242</v>
+        <v>2.76749</v>
       </c>
       <c r="B91" t="n">
-        <v>2.97412</v>
+        <v>5.12583</v>
       </c>
       <c r="C91" t="n">
-        <v>2974.12</v>
+        <v>5125.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79152</v>
+        <v>2.7982</v>
       </c>
       <c r="B92" t="n">
-        <v>2.92717</v>
+        <v>5.09808</v>
       </c>
       <c r="C92" t="n">
-        <v>2927.17</v>
+        <v>5098.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82257</v>
+        <v>2.82758</v>
       </c>
       <c r="B93" t="n">
-        <v>2.87632</v>
+        <v>5.08534</v>
       </c>
       <c r="C93" t="n">
-        <v>2876.32</v>
+        <v>5085.34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85584</v>
+        <v>2.85574</v>
       </c>
       <c r="B94" t="n">
-        <v>2.82497</v>
+        <v>5.06496</v>
       </c>
       <c r="C94" t="n">
-        <v>2824.97</v>
+        <v>5064.96</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88912</v>
+        <v>2.8839</v>
       </c>
       <c r="B95" t="n">
-        <v>2.77384</v>
+        <v>5.04525</v>
       </c>
       <c r="C95" t="n">
-        <v>2773.84</v>
+        <v>5045.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9216</v>
+        <v>2.91207</v>
       </c>
       <c r="B96" t="n">
-        <v>2.72354</v>
+        <v>5.02756</v>
       </c>
       <c r="C96" t="n">
-        <v>2723.54</v>
+        <v>5027.56</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95232</v>
+        <v>2.94032</v>
       </c>
       <c r="B97" t="n">
-        <v>2.67444</v>
+        <v>4.99799</v>
       </c>
       <c r="C97" t="n">
-        <v>2674.44</v>
+        <v>4997.99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98304</v>
+        <v>2.97552</v>
       </c>
       <c r="B98" t="n">
-        <v>2.62656</v>
+        <v>4.97758</v>
       </c>
       <c r="C98" t="n">
-        <v>2626.56</v>
+        <v>4977.58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01376</v>
+        <v>3.01072</v>
       </c>
       <c r="B99" t="n">
-        <v>2.57972</v>
+        <v>4.94099</v>
       </c>
       <c r="C99" t="n">
-        <v>2579.72</v>
+        <v>4940.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04448</v>
+        <v>3.04476</v>
       </c>
       <c r="B100" t="n">
-        <v>2.53425</v>
+        <v>4.916810000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>2534.25</v>
+        <v>4916.81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07386</v>
+        <v>3.07676</v>
       </c>
       <c r="B101" t="n">
-        <v>2.49038</v>
+        <v>4.88244</v>
       </c>
       <c r="C101" t="n">
-        <v>2490.38</v>
+        <v>4882.44</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10202</v>
+        <v>3.10876</v>
       </c>
       <c r="B102" t="n">
-        <v>2.44767</v>
+        <v>4.858680000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>2447.67</v>
+        <v>4858.68</v>
       </c>
     </row>
   </sheetData>
